--- a/data/financial_statements/sofp/COF.xlsx
+++ b/data/financial_statements/sofp/COF.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,2252 +581,2306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>31256000000</v>
+      </c>
+      <c r="C2">
         <v>25291000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>22250000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>27085000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>22054000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>26858000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>35088000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>52274000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>40771000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>45001000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>56558000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>25300000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>13749000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>17537000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>15821000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>19438000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>13489000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>11628000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>13296000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>14317000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>14352000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>8788000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>7015000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>9801000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>12493000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>9381000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>7414000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>6195000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>9040000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>7423000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>7409000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>9125000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>7476000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>6553000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>7093000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>6732000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>7165000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>6108000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>5030000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>7764000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>332654000000</v>
+      </c>
+      <c r="C3">
         <v>320607000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>309629000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>298877000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>295312000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>284393000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>280233000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>285664000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>281012000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>282079000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>293523000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>276960000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>274508000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>262727000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>256521000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>254918000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>254974000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>246090000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>245025000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>258000000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>263830000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>256784000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>246270000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>245508000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>253970000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>243387000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>238592000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>230864000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>235854000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>217572000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>214560000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>211107000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>213114000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>205628000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>203805000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>197159000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>201685000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>195073000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>199837000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>202279000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>4351000000</v>
+      </c>
+      <c r="C4">
         <v>4265000000</v>
-      </c>
-      <c r="C4">
-        <v>4238000000</v>
       </c>
       <c r="D4">
         <v>4238000000</v>
       </c>
       <c r="E4">
-        <v>5347000000</v>
+        <v>4238000000</v>
       </c>
       <c r="F4">
+        <v>4210000000</v>
+      </c>
+      <c r="G4">
         <v>4204000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4227000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4277000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4287000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4333000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4324000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4336000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4378000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4311000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4243000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4205000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>4191000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4149000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4095000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4055000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4033000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3955000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3825000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>3727000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3675000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3561000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3556000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3542000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3584000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>3629000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3602000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3684000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>3685000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>3752000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3764000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3807000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3839000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>3792000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>3766000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>3736000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>76919000000</v>
+      </c>
+      <c r="C5">
         <v>75303000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>83022000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>89076000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>95261000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>98149000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>101766000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>99165000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>100445000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>99853000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>87859000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>81423000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>79213000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>80062000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>81133000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>82391000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>82921000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>82015000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>84155000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>70230000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>66639000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>68392000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>68840000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>67430000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>66449000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>66530000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>65080000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>65172000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>63680000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>63142000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>62804000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>62562000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>62008000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>61847000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>61801000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>60871000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>60932000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>61408000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>62602000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>63968000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>14954000000</v>
+        <v>14777000000</v>
       </c>
       <c r="C6">
-        <v>14861000000</v>
+        <v>14771000000</v>
       </c>
       <c r="D6">
-        <v>14881000000</v>
+        <v>14778000000</v>
       </c>
       <c r="E6">
-        <v>14893000000</v>
+        <v>14784000000</v>
       </c>
       <c r="F6">
-        <v>14740000000</v>
+        <v>14782000000</v>
       </c>
       <c r="G6">
-        <v>14654000000</v>
+        <v>14652000000</v>
       </c>
       <c r="H6">
         <v>14654000000</v>
       </c>
       <c r="I6">
+        <v>14654000000</v>
+      </c>
+      <c r="J6">
         <v>14653000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>14648000000</v>
-      </c>
-      <c r="K6">
-        <v>14645000000</v>
       </c>
       <c r="L6">
         <v>14645000000</v>
       </c>
       <c r="M6">
+        <v>14645000000</v>
+      </c>
+      <c r="N6">
         <v>14653000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>14624000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>14545000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>14546000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>14544000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>14513000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>14531000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>14536000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>14533000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>14532000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>14524000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>14521000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>14519000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>14493000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>14495000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>14492000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>14480000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>13983000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>13984000000</v>
-      </c>
-      <c r="AF6">
-        <v>13978000000</v>
       </c>
       <c r="AG6">
         <v>13978000000</v>
       </c>
       <c r="AH6">
+        <v>13978000000</v>
+      </c>
+      <c r="AI6">
         <v>13970000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>13977000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>13974000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>13978000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>13906000000</v>
-      </c>
-      <c r="AM6">
-        <v>13900000000</v>
       </c>
       <c r="AN6">
         <v>13900000000</v>
       </c>
+      <c r="AO6">
+        <v>13900000000</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>24219000000</v>
+        <v>26548000000</v>
       </c>
       <c r="C7">
-        <v>23318000000</v>
+        <v>29286000000</v>
       </c>
       <c r="D7">
-        <v>21828000000</v>
+        <v>28621000000</v>
       </c>
       <c r="E7">
-        <v>17738000000</v>
+        <v>27220000000</v>
       </c>
       <c r="F7">
-        <v>18443000000</v>
+        <v>22816000000</v>
       </c>
       <c r="G7">
+        <v>23979000000</v>
+      </c>
+      <c r="H7">
         <v>22540000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>21415000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>21205000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>20970000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20945000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>19514000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>17613000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>17086000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>17177000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>17131000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>15908000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>16142000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>16183000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>16036000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>16658000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>17739000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>17134000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>17363000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>18420000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>17090000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>17394000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>16276000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>16450000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>15374000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>15560000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>14893000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>15382000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>15005000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>14970000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>14689000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>16499000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>15709000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>16437000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>16280000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>122595000000</v>
+      </c>
+      <c r="C8">
         <v>123625000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>130659000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>135318000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>137069000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>140984000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>143187000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>139511000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>140590000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>139804000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>127773000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>119918000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>115857000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>116083000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>117098000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>118273000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>117564000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>116819000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>118964000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>104857000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>101863000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>104618000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>104323000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>103041000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>103063000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>101674000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>100525000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>99482000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>98194000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>96128000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>95950000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>95117000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>95053000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>94574000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>94512000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>93341000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>95248000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>94815000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>96705000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>97884000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>455249000000.0001</v>
+      </c>
+      <c r="C9">
         <v>444232000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>440288000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>434195000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>432381000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>425377000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>423420000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>425175000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>421602000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>421883000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>421296000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>396878000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>390365000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>378810000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>373619000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>373191000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>372538000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>362909000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>363989000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>362857000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>365693000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>361402000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>350593000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>348549000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>357033000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>345061000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>339117000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>330346000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>334048000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>313700000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>310510000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>306224000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>308167000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>300202000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>298317000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>290500000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>296933000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>289888000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>296542000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>300163000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>883000000</v>
+      </c>
+      <c r="C10">
         <v>528000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>440000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>594000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>820000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>825000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>845000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>842000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>668000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>702000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>573000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>399000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>314000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>464000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>359000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>335000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>352000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>384000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>553000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>656000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>576000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>767000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>958000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1046000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>992000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1079000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>999000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>917000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>981000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1021000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1888000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>933000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>880000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2330000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2030000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1544000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>915000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1686000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1766000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>855000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>332992000000</v>
+      </c>
+      <c r="C11">
         <v>317193000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>307885000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>313429000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>310980000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>305938000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>306308000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>310328000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>305442000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>305725000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>304238000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>269689000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>262697000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>257148000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>254535000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>255107000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>249764000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>247195000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>248225000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>250847000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>243702000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>239062000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>239763000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>241182000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>236768000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>225981000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>221059000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>221779000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>217721000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>212903000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>208780000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>210440000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>205548000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>204264000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>205890000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>208324000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>204523000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>206834000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>209865000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>212410000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>527000000</v>
+      </c>
+      <c r="C12">
         <v>433000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>333000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>261000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>281000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>241000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>301000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>288000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>352000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>332000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>380000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>359000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>439000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>370000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>437000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>382000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>458000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>391000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>450000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>353000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>413000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>301000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>376000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>260000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>327000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>237000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>301000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>217000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>299000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>198000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>262000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>195000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>254000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>249000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>309000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>259000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>307000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>276000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>324000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>310000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>528000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>880000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4594000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9118000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>825000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>845000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>842000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>7193000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>702000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>573000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>399000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>17477000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>334402000000</v>
+      </c>
+      <c r="C14">
         <v>318154000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>308658000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>314284000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>312081000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>307004000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>307454000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>311458000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>306462000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>306759000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>305191000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>270447000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>263450000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>257982000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>255331000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>255824000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>250574000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>247970000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>249228000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>251856000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>244691000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>240130000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>241097000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>242488000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>238087000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>227297000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>222359000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>222913000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>219001000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>214122000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>210930000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>211568000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>206682000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>206843000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>208229000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>210127000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>205745000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>208796000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>211955000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>213575000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>47832000000</v>
+      </c>
+      <c r="C15">
         <v>54079000000</v>
       </c>
-      <c r="C15">
-        <v>58058000000</v>
-      </c>
       <c r="D15">
-        <v>40764000000</v>
+        <v>58498000000</v>
       </c>
       <c r="E15">
-        <v>35453000000</v>
+        <v>44764000000</v>
       </c>
       <c r="F15">
+        <v>42266000000</v>
+      </c>
+      <c r="G15">
         <v>36676000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>35498000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>37608000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>39871000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>42093000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>44327000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>55282000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>55383000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>49685000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>48874000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>50023000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>58553000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>51821000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>52757000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>50037000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>59705000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>58691000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>48996000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>47393000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>59468000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>58741000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>58182000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>49580000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>58134000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>41757000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>43878000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>40096000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>47577000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>39913000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>37084000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>28574000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>39739000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>30159000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>34465000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>36637000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>21571000000</v>
+        <v>20433000000</v>
       </c>
       <c r="C16">
-        <v>20055000000</v>
+        <v>21138000000</v>
       </c>
       <c r="D16">
-        <v>19063000000</v>
+        <v>19722000000</v>
       </c>
       <c r="E16">
-        <v>15801000000</v>
+        <v>18802000000</v>
       </c>
       <c r="F16">
-        <v>18394000000</v>
+        <v>17005000000</v>
       </c>
       <c r="G16">
+        <v>18153000000</v>
+      </c>
+      <c r="H16">
         <v>15844000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>14921000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>15065000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>14607000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>15733000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>14319000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>13521000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>12908000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>13647000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>13863000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>11743000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>12480000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>12078000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>11761000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>12567000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>12427000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>11363000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>10628000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>11964000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>10810000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>10468000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>10146000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>9629000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>10136000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>9043000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>8830000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>8855000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>9428000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>9189000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>8998000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>9817000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>9183000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>9081000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>8655000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>68265000000</v>
+      </c>
+      <c r="C17">
         <v>75217000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>78220000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>63566000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>59271000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>54829000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>51342000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>52529000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>54936000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>56700000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>60060000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>69601000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>68904000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>62593000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>62521000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>63886000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>70296000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>64301000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>64835000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>61798000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>72272000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>71118000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>60359000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>58021000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>71432000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>69551000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>68650000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>59726000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>67763000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>51893000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>52921000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>48926000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>56432000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>49341000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>46273000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>37572000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>49556000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>39342000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>43546000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>45292000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>402667000000</v>
+      </c>
+      <c r="C18">
         <v>393371000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>386878000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>377850000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>371352000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>361833000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>358796000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>363987000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>361398000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>363459000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>365251000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>340048000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>332354000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>320575000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>317852000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>319710000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>320870000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>312271000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>314063000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>313654000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>316963000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>311248000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>301456000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>300509000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>309519000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>296848000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>291009000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>282639000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>286764000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>266015000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>263851000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>260494000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>263114000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>256184000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>254502000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>247699000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>255301000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>248138000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>255501000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>258867000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>34725000000</v>
+      </c>
+      <c r="C19">
         <v>34579000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>34425000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>34286000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>34112000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>35051000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>35472000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>33671000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>33480000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>33793000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>33556000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>33450000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>32980000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>33826000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>32262000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>32160000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>32040000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>31978000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>31868000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>31779000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>31656000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>31526000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>31413000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>31326000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>31157000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>30439000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>29786000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>29709000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>29655000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>29594000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>29063000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>27939000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>27869000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>27272000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>27210000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>26605000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>26526000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>26426000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>26339000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>26256000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>7000000</v>
@@ -2796,7 +2964,7 @@
         <v>7000000</v>
       </c>
       <c r="AC20">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="AD20">
         <v>6000000</v>
@@ -2831,745 +2999,763 @@
       <c r="AN20">
         <v>6000000</v>
       </c>
+      <c r="AO20">
+        <v>6000000</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>57184000000</v>
+      </c>
+      <c r="C21">
         <v>56240000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>54836000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>53099000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>51006000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>48944000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>46461000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>43167000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>40088000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>37653000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>35361000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>36552000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>40340000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>39476000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>38386000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>37030000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>35875000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>34883000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>33626000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>31996000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>30700000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>31946000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>31086000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>30326000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>29766000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>29245000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>28479000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>27808000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>27045000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>26407000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>25540000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>24925000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>23973000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>23162000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>22270000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>21259000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>20292000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>19731000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>18804000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>17876000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>29418000000</v>
+      </c>
+      <c r="C22">
         <v>29261000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>28942000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>26954000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>24470000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>21818000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>19108000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>17440000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>16865000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>16862000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>16860000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>16858000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>16472000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>15527000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>15058000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>15056000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>14991000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>14353000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>13782000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>12980000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>12707000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>12703000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>12686000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>12685000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>12467000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>11599000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>10405000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>9776000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>8806000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>8180000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>7553000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>6928000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>6365000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>5863000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>5300000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>4359000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>4320000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>3574000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>3316000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>3315000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>52582000000</v>
+      </c>
+      <c r="C23">
         <v>50861000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>53410000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>56345000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>61029000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>63544000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>64624000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>61188000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>60204000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>58424000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>56045000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>56830000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>58011000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>58235000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>55767000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>53481000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>51668000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>50638000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>49926000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>49203000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>48730000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>50154000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>49137000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>48040000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>47514000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>48213000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>48108000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>47707000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>47284000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>47685000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>46659000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>45730000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>45053000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>44018000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>43815000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>42801000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>41632000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>41750000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>41041000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>41296000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>52582000000</v>
+      </c>
+      <c r="C24">
         <v>50861000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>53410000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>56345000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>61029000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>63544000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>64624000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>61188000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>60204000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>58424000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>56045000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>56830000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>58011000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>58235000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>55767000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>53481000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>51668000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>50638000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>49926000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>49203000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>48730000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>50154000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>49137000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>48040000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>47514000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>48213000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>48108000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>47707000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>47284000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>47685000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>46659000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>45730000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>45053000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>44018000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>43815000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>42801000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>41632000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>41750000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>41041000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>41296000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>455249000000.0001</v>
+      </c>
+      <c r="C25">
         <v>444232000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>440288000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>434195000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>432381000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>425377000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>423420000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>425175000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>421602000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>421883000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>421296000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>396878000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>390365000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>378810000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>373619000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>373191000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>372538000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>362909000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>363989000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>362857000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>365693000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>361402000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>350593000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>348549000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>357033000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>345061000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>339117000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>330346000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>334048000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>313700000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>310510000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>306224000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>308167000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>300202000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>298317000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>290500000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>296933000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>289888000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>296542000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>300163000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>381300000</v>
+      </c>
+      <c r="C26">
         <v>381976000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>383818000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>398988000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>413856000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>430376000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>446114000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>456801000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>458972000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>457397000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>456335000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>455310000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>456562000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>465721000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>470333000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>469597000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>467717000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>473657000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>478425000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>485879000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>485525000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>484420000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>483693000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>482765000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>480219000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>489220000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>505925000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>514479000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>527260000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>534906000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>542460000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>548003000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>553391000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>558527000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>561850000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>572919000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>572675000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>581944000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>584862000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>583982000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>4975000</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>4975000</v>
@@ -3581,34 +3767,34 @@
         <v>4975000</v>
       </c>
       <c r="F27">
+        <v>4975000</v>
+      </c>
+      <c r="G27">
         <v>6075000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>6650000</v>
-      </c>
-      <c r="H27">
-        <v>4975000</v>
       </c>
       <c r="I27">
         <v>4975000</v>
       </c>
       <c r="J27">
+        <v>4975000</v>
+      </c>
+      <c r="K27">
         <v>5475000</v>
-      </c>
-      <c r="K27">
-        <v>5350000</v>
       </c>
       <c r="L27">
         <v>5350000</v>
       </c>
       <c r="M27">
+        <v>5350000</v>
+      </c>
+      <c r="N27">
         <v>4975000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5975000</v>
-      </c>
-      <c r="O27">
-        <v>4475000</v>
       </c>
       <c r="P27">
         <v>4475000</v>
@@ -3641,10 +3827,10 @@
         <v>4475000</v>
       </c>
       <c r="Z27">
+        <v>4475000</v>
+      </c>
+      <c r="AA27">
         <v>3976000</v>
-      </c>
-      <c r="AA27">
-        <v>3375000</v>
       </c>
       <c r="AB27">
         <v>3375000</v>
@@ -3656,396 +3842,408 @@
         <v>3375000</v>
       </c>
       <c r="AE27">
+        <v>3375000</v>
+      </c>
+      <c r="AF27">
         <v>2875000</v>
-      </c>
-      <c r="AF27">
-        <v>1875000</v>
       </c>
       <c r="AG27">
         <v>1875000</v>
       </c>
       <c r="AH27">
+        <v>1875000</v>
+      </c>
+      <c r="AI27">
         <v>875000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1375000</v>
-      </c>
-      <c r="AJ27">
-        <v>875000</v>
       </c>
       <c r="AK27">
         <v>875000</v>
       </c>
-      <c r="AM27">
+      <c r="AL27">
         <v>875000</v>
       </c>
       <c r="AN27">
         <v>875000</v>
       </c>
+      <c r="AO27">
+        <v>875000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>37805000000</v>
+      </c>
+      <c r="C28">
         <v>36090000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>38632000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>41561000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>46247000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>48892000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>49970000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>46534000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>45551000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>43776000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>41400000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>42185000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>43358000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>43611000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>41222000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>38935000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>37124000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>36125000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>35395000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>34667000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>34197000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>35622000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>34613000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>33519000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>32995000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>33720000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>33613000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>33215000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>32804000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>33702000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>32675000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>31752000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>31075000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>30048000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>29838000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>28827000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>27654000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>27844000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>27141000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>27396000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>16576000000</v>
+      </c>
+      <c r="C29">
         <v>29316000000</v>
       </c>
-      <c r="C29">
-        <v>36688000000</v>
-      </c>
       <c r="D29">
-        <v>18273000000</v>
+        <v>37128000000</v>
       </c>
       <c r="E29">
-        <v>22517000000</v>
+        <v>22273000000</v>
       </c>
       <c r="F29">
+        <v>29330000000</v>
+      </c>
+      <c r="G29">
         <v>10643000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1255000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-13824000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>6293000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-2206000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-11658000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>30381000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>59111000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>32148000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>33053000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>30585000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>45064000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>40193000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>39461000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>35720000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>45353000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>49903000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>41981000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>37592000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>46975000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>49360000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>50768000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>43385000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>49094000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>34334000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>36469000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>30971000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>40101000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>33360000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>29991000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>21842000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>32574000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>24051000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>29435000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>28873000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>47832000000</v>
+      </c>
+      <c r="C30">
         <v>54607000000</v>
       </c>
-      <c r="C30">
-        <v>58938000000</v>
-      </c>
       <c r="D30">
-        <v>45358000000</v>
+        <v>59378000000</v>
       </c>
       <c r="E30">
-        <v>44571000000</v>
+        <v>49358000000</v>
       </c>
       <c r="F30">
+        <v>51384000000</v>
+      </c>
+      <c r="G30">
         <v>37501000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>36343000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>38450000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>47064000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>42795000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>44900000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>55681000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>72860000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>49685000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>48874000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>50023000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>58553000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>51821000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>52757000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>50037000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>59705000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>58691000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>48996000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>47393000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>59468000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>58741000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>58182000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>49580000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>58134000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>41757000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>43878000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>40096000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>47577000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>39913000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>37084000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>28574000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>39739000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>30159000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>34465000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>36637000000</v>
       </c>
     </row>
